--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -970,10 +982,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1017,28 +1029,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1063,28 +1075,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1723,10 +1735,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1770,28 +1782,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1816,28 +1828,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2360,10 +2372,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2407,28 +2419,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2453,28 +2465,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2939,10 +2951,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="J97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2986,28 +2998,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3032,28 +3044,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3344,10 +3356,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3391,28 +3403,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3437,28 +3449,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3604,10 +3616,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3651,28 +3663,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3697,28 +3709,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3835,10 +3847,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="J128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3882,28 +3894,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3928,28 +3940,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4008,10 +4020,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="J134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4055,28 +4067,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4101,28 +4113,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4268,10 +4280,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="J143" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4315,28 +4327,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4361,28 +4373,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4470,10 +4482,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="J150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4517,28 +4529,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4563,28 +4575,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
